--- a/doc/软件技术选型V0.2.xlsx
+++ b/doc/软件技术选型V0.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,12 @@
     <definedName name="任务_表">表1!#REF!</definedName>
     <definedName name="资源_表">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -183,10 +188,6 @@
   </si>
   <si>
     <t>应用系统开发技术选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eclipse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,12 +409,16 @@
     <t>本地事务+TCC型事务/补偿型事务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,38 +519,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -553,40 +558,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,7 +717,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1205,32 +1210,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="10" width="4.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="7.625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="24">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="9"/>
@@ -1288,7 +1293,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14" ht="17">
       <c r="A3" s="33"/>
       <c r="B3" s="38" t="s">
         <v>23</v>
@@ -1312,7 +1317,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14" ht="17">
       <c r="A4" s="33"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36" t="s">
@@ -1320,7 +1325,7 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1336,15 +1341,15 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75">
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="33"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -1386,7 +1391,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14" ht="17">
       <c r="A7" s="33"/>
       <c r="B7" s="35"/>
       <c r="C7" s="40"/>
@@ -1410,7 +1415,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75">
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="33"/>
       <c r="B8" s="35"/>
       <c r="C8" s="14" t="s">
@@ -1434,14 +1439,14 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75">
+    <row r="9" spans="1:14" ht="17">
       <c r="A9" s="33"/>
       <c r="B9" s="35"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
@@ -1458,7 +1463,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75">
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="33"/>
       <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
@@ -1482,14 +1487,14 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75">
+    <row r="11" spans="1:14" ht="17">
       <c r="A11" s="33"/>
       <c r="B11" s="35"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1506,7 +1511,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="27">
+    <row r="12" spans="1:14" ht="28">
       <c r="A12" s="33"/>
       <c r="B12" s="35"/>
       <c r="C12" s="11" t="s">
@@ -1532,14 +1537,14 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14" ht="17">
       <c r="A13" s="33"/>
       <c r="B13" s="35"/>
       <c r="C13" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>35</v>
@@ -1558,11 +1563,11 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75">
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="33"/>
       <c r="B14" s="39"/>
       <c r="C14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>20</v>
@@ -1584,7 +1589,7 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="33"/>
       <c r="B15" s="35"/>
       <c r="C15" s="14" t="s">
@@ -1610,11 +1615,11 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="33"/>
       <c r="B16" s="35"/>
       <c r="C16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -1634,14 +1639,14 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="18.75">
+    <row r="17" spans="1:14" ht="17">
       <c r="A17" s="33"/>
       <c r="B17" s="35"/>
       <c r="C17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
@@ -1658,17 +1663,17 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="18.75">
+    <row r="18" spans="1:14" ht="17">
       <c r="A18" s="33"/>
       <c r="B18" s="35"/>
       <c r="C18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1680,7 +1685,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" ht="18.75">
+    <row r="19" spans="1:14" ht="17">
       <c r="A19" s="33"/>
       <c r="B19" s="35"/>
       <c r="C19" s="20" t="s">
@@ -1702,15 +1707,15 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="18.75">
+    <row r="20" spans="1:14" ht="17">
       <c r="A20" s="33"/>
       <c r="B20" s="35"/>
       <c r="C20" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -1731,13 +1736,13 @@
     <row r="21" spans="1:14" ht="18.75" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="7"/>
@@ -1750,14 +1755,14 @@
       <c r="M21" s="8"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14" ht="18.75">
+    <row r="22" spans="1:14" ht="17">
       <c r="A22" s="33"/>
       <c r="B22" s="35"/>
       <c r="C22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="7"/>
@@ -1778,10 +1783,10 @@
       <c r="A23" s="33"/>
       <c r="B23" s="35"/>
       <c r="C23" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="7"/>
@@ -1802,10 +1807,10 @@
       <c r="A24" s="33"/>
       <c r="B24" s="39"/>
       <c r="C24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="7"/>
@@ -1848,10 +1853,10 @@
       <c r="A26" s="33"/>
       <c r="B26" s="31"/>
       <c r="C26" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
@@ -1870,10 +1875,10 @@
       <c r="A27" s="33"/>
       <c r="B27" s="31"/>
       <c r="C27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="7"/>
@@ -1888,14 +1893,14 @@
       <c r="M27" s="8"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14" ht="18.75">
+    <row r="28" spans="1:14" ht="17">
       <c r="A28" s="33"/>
       <c r="B28" s="31"/>
       <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
@@ -1912,14 +1917,14 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="18.75">
+    <row r="29" spans="1:14" ht="17">
       <c r="A29" s="33"/>
       <c r="B29" s="31"/>
       <c r="C29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
@@ -1936,14 +1941,14 @@
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="18.75">
+    <row r="30" spans="1:14" ht="17">
       <c r="A30" s="33"/>
       <c r="B30" s="31"/>
       <c r="C30" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
@@ -1960,7 +1965,7 @@
       </c>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="18.75">
+    <row r="31" spans="1:14" ht="17">
       <c r="A31" s="34"/>
       <c r="B31" s="31"/>
       <c r="C31" s="14" t="s">
@@ -1984,7 +1989,7 @@
       </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="18.75">
+    <row r="32" spans="1:14" ht="17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
@@ -2039,32 +2044,37 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A34:J80"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="1:1" ht="14.25">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15">
+      <c r="A55" s="26" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25">
-      <c r="A55" s="26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2124,18 +2134,23 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15">
+      <c r="A80" s="26" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.25">
-      <c r="A80" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/软件技术选型V0.2.xlsx
+++ b/doc/软件技术选型V0.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="表1" sheetId="1" r:id="rId1"/>
@@ -276,10 +281,6 @@
   </si>
   <si>
     <t>运行日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiro+OAuth2/CAS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,12 +414,16 @@
     <t>idea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shiro+jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,13 +452,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -661,9 +659,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -676,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -715,9 +710,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -749,6 +747,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1214,28 +1215,28 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="13.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="4"/>
+    <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="10" width="4.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="7.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="7.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="15" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="9"/>
@@ -1269,8 +1270,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1293,15 +1294,15 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="17">
-      <c r="A3" s="33"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
@@ -1317,15 +1318,15 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="17">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="24" t="s">
-        <v>68</v>
+      <c r="D4" s="36"/>
+      <c r="E4" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
@@ -1341,15 +1342,15 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" ht="17">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="24" t="s">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>70</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -1365,10 +1366,10 @@
       </c>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="40" t="s">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -1391,10 +1392,10 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="17">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="40"/>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
@@ -1415,9 +1416,9 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="17">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1439,9 +1440,9 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="17">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1463,9 +1464,9 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="17">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1487,14 +1488,14 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="17">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>79</v>
+      <c r="D11" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
@@ -1511,9 +1512,9 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="28">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1537,14 +1538,14 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="17">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>67</v>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>35</v>
@@ -1563,9 +1564,9 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="17">
-      <c r="A14" s="33"/>
-      <c r="B14" s="39"/>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="19" t="s">
         <v>66</v>
       </c>
@@ -1589,9 +1590,9 @@
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="17">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
@@ -1615,9 +1616,9 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="17">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
@@ -1639,9 +1640,9 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="35"/>
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="18" t="s">
         <v>58</v>
       </c>
@@ -1663,36 +1664,36 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="17">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="25" t="s">
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>77</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14" ht="17">
-      <c r="A19" s="33"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="20" t="s">
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
@@ -1707,14 +1708,14 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="17">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="21" t="s">
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1733,12 +1734,12 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -1755,14 +1756,14 @@
       <c r="M21" s="8"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14" ht="17">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="22" t="s">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="7"/>
@@ -1779,10 +1780,10 @@
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="22" t="s">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -1803,14 +1804,14 @@
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="39"/>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>69</v>
+      <c r="D24" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="7"/>
@@ -1823,9 +1824,9 @@
       <c r="M24" s="8"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31" t="s">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1849,9 +1850,9 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
@@ -1871,9 +1872,9 @@
       <c r="M26" s="8"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1893,9 +1894,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14" ht="17">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
@@ -1917,9 +1918,9 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="17">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="14" t="s">
         <v>30</v>
       </c>
@@ -1941,9 +1942,9 @@
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="17">
-      <c r="A30" s="33"/>
-      <c r="B30" s="31"/>
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="15" t="s">
         <v>36</v>
       </c>
@@ -1965,9 +1966,9 @@
       </c>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="17">
-      <c r="A31" s="34"/>
-      <c r="B31" s="31"/>
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="14" t="s">
         <v>38</v>
       </c>
@@ -1989,7 +1990,7 @@
       </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="17">
+    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
@@ -2044,7 +2045,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2061,85 +2062,85 @@
       <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="26" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="H57" s="27"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="29" t="s">
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="25" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15">
-      <c r="A80" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
